--- a/target/test-classes/API TestData.xlsx
+++ b/target/test-classes/API TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\API\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929678F5-2067-49E4-8AD3-CD2A581B66DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3A14B0-940C-4EAD-B2A3-9CA4CA7F8798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
   <si>
     <t>CreateUser</t>
   </si>
@@ -57,18 +57,12 @@
     <t>userReferralCode</t>
   </si>
   <si>
-    <t>akashrj33@gmail.com</t>
-  </si>
-  <si>
     <t>akashrj33</t>
   </si>
   <si>
     <t>user</t>
   </si>
   <si>
-    <t>e2bdea</t>
-  </si>
-  <si>
     <t>akashrj11</t>
   </si>
   <si>
@@ -111,13 +105,46 @@
     <t>new password</t>
   </si>
   <si>
-    <t>akashrj3</t>
-  </si>
-  <si>
     <t>ForgotPasswordLink</t>
   </si>
   <si>
     <t>akashrj@promilo.com</t>
+  </si>
+  <si>
+    <t>akashrj1</t>
+  </si>
+  <si>
+    <t>jalinabd17@gmail.com</t>
+  </si>
+  <si>
+    <t>dubof8</t>
+  </si>
+  <si>
+    <t>OTP</t>
+  </si>
+  <si>
+    <t>akashrj1917@gmail.com</t>
+  </si>
+  <si>
+    <t>akashrj17@gmail.com</t>
+  </si>
+  <si>
+    <t>OTP Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source </t>
+  </si>
+  <si>
+    <t>In Active Status</t>
+  </si>
+  <si>
+    <t>Active Status</t>
+  </si>
+  <si>
+    <t>Referral List</t>
+  </si>
+  <si>
+    <t>dubof</t>
   </si>
 </sst>
 </file>
@@ -194,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -207,6 +234,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -490,15 +523,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -532,16 +565,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -550,13 +583,13 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -564,14 +597,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -579,85 +612,85 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>9876654345</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3">
         <v>9876654345</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,24 +698,24 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>28</v>
@@ -693,7 +726,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
@@ -706,7 +739,7 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>28</v>
@@ -717,10 +750,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="1">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -729,24 +762,24 @@
         <v>5</v>
       </c>
       <c r="B17" s="1">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
@@ -754,7 +787,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -762,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="3">
-        <v>9986862930</v>
+        <v>9876654345</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -770,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,6 +820,271 @@
       </c>
       <c r="B23" s="2">
         <v>8654572889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>9986862930</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2">
+        <v>9876573899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2">
+        <v>9986862930</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2">
+        <v>9986862930</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>2</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2">
+        <v>9986862930</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2">
+        <v>9986862930</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>1</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>2</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2">
+        <v>9986862930</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2">
+        <v>9986862930</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>2</v>
+      </c>
+      <c r="B47" s="2">
+        <v>9986862930</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -796,9 +1094,16 @@
     <hyperlink ref="B5:B8" r:id="rId2" display="akassss3@gmail.com" xr:uid="{F66C94ED-9822-4AB4-94E3-7C1ABBA25BC1}"/>
     <hyperlink ref="B7" r:id="rId3" display="akasss3@gmail.com" xr:uid="{0CCF518F-2023-44AD-8368-F807C0A964CF}"/>
     <hyperlink ref="B10" r:id="rId4" display="akassss3@gmail.com" xr:uid="{48197707-70E4-446A-AA17-0148ADE98461}"/>
-    <hyperlink ref="B21" r:id="rId5" xr:uid="{7D8CAB10-BB88-4561-AEFF-F7C481E0B35B}"/>
-    <hyperlink ref="B20" r:id="rId6" display="akassss3@gmail.com" xr:uid="{D982B571-5820-4C24-95DD-3672C5A7F38B}"/>
-    <hyperlink ref="B22" r:id="rId7" xr:uid="{CD26137D-5BAF-4DFF-BA9A-74158A500319}"/>
+    <hyperlink ref="B22" r:id="rId5" xr:uid="{CD26137D-5BAF-4DFF-BA9A-74158A500319}"/>
+    <hyperlink ref="B20" r:id="rId6" display="akassss3@gmail.com" xr:uid="{E8F58B9E-5C76-4CAF-807C-D3635239F50D}"/>
+    <hyperlink ref="B27" r:id="rId7" display="akashrj@promilo.com" xr:uid="{8595C533-E9FD-4813-9C32-DF8487FCD918}"/>
+    <hyperlink ref="B25" r:id="rId8" xr:uid="{5C3B2FB8-0349-4D33-9FBC-8E01AC970ED9}"/>
+    <hyperlink ref="B26" r:id="rId9" xr:uid="{60CDAF95-3A39-413B-86BF-D86B527B6F0B}"/>
+    <hyperlink ref="B32" r:id="rId10" xr:uid="{158D8963-EED8-4C3F-AD85-ED3899E7120F}"/>
+    <hyperlink ref="B34" r:id="rId11" xr:uid="{C6017178-4351-4DC2-A2C8-25A8940A2DA5}"/>
+    <hyperlink ref="B36" r:id="rId12" xr:uid="{CC549D04-028E-45ED-B259-5188A6E93BB5}"/>
+    <hyperlink ref="B43" r:id="rId13" xr:uid="{C5157788-1439-4357-A745-60B8B72DC788}"/>
+    <hyperlink ref="B44" r:id="rId14" xr:uid="{AF2DE12E-B623-4102-8F26-8A83F3075641}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/test-classes/API TestData.xlsx
+++ b/target/test-classes/API TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\API\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3A14B0-940C-4EAD-B2A3-9CA4CA7F8798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE0C877-2C81-4EEB-AB8C-A79FB56E01CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="42">
   <si>
     <t>CreateUser</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>dubof</t>
+  </si>
+  <si>
+    <t>Referral Code</t>
+  </si>
+  <si>
+    <t>akashrj33@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -221,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -240,6 +246,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -523,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,6 +1094,16 @@
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1104,6 +1123,7 @@
     <hyperlink ref="B36" r:id="rId12" xr:uid="{CC549D04-028E-45ED-B259-5188A6E93BB5}"/>
     <hyperlink ref="B43" r:id="rId13" xr:uid="{C5157788-1439-4357-A745-60B8B72DC788}"/>
     <hyperlink ref="B44" r:id="rId14" xr:uid="{AF2DE12E-B623-4102-8F26-8A83F3075641}"/>
+    <hyperlink ref="A52" r:id="rId15" xr:uid="{49BD0EA1-3293-4939-864A-BF63A6D43016}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/test-classes/API TestData.xlsx
+++ b/target/test-classes/API TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\API\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE0C877-2C81-4EEB-AB8C-A79FB56E01CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4E3DC2-85B6-4060-AEC5-B9898AA03797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="46">
   <si>
     <t>CreateUser</t>
   </si>
@@ -105,18 +105,9 @@
     <t>new password</t>
   </si>
   <si>
-    <t>ForgotPasswordLink</t>
-  </si>
-  <si>
-    <t>akashrj@promilo.com</t>
-  </si>
-  <si>
     <t>akashrj1</t>
   </si>
   <si>
-    <t>jalinabd17@gmail.com</t>
-  </si>
-  <si>
     <t>dubof8</t>
   </si>
   <si>
@@ -126,18 +117,12 @@
     <t>akashrj1917@gmail.com</t>
   </si>
   <si>
-    <t>akashrj17@gmail.com</t>
-  </si>
-  <si>
     <t>OTP Login</t>
   </si>
   <si>
     <t xml:space="preserve">source </t>
   </si>
   <si>
-    <t>In Active Status</t>
-  </si>
-  <si>
     <t>Active Status</t>
   </si>
   <si>
@@ -147,10 +132,37 @@
     <t>dubof</t>
   </si>
   <si>
-    <t>Referral Code</t>
-  </si>
-  <si>
     <t>akashrj33@gmail.com</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>akash1917</t>
+  </si>
+  <si>
+    <t>akash</t>
+  </si>
+  <si>
+    <t>Send OTP</t>
+  </si>
+  <si>
+    <t>Invite</t>
+  </si>
+  <si>
+    <t>VerificationOTP</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>akash@gmail.com</t>
+  </si>
+  <si>
+    <t>akash1</t>
+  </si>
+  <si>
+    <t>promilo_admin</t>
   </si>
 </sst>
 </file>
@@ -227,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -236,19 +248,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -532,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +602,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -598,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -613,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -628,7 +647,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -677,7 +696,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -694,7 +713,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -717,7 +736,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1">
@@ -727,7 +746,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,7 +758,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -751,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -774,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -782,109 +801,135 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>26</v>
+      <c r="D19" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3">
-        <v>9876654345</v>
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>3</v>
+      <c r="A21" s="2">
+        <v>9986862930</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>4</v>
+      <c r="A22" s="2">
+        <v>9986862930</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="2">
-        <v>8654572889</v>
+      <c r="A23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>3</v>
+      <c r="A26" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3">
+      <c r="A27" s="2">
         <v>9986862930</v>
       </c>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="2">
-        <v>9876573899</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -905,8 +950,8 @@
       <c r="A32" s="2">
         <v>1</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>32</v>
+      <c r="B32" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
@@ -933,8 +978,8 @@
       <c r="A34" s="2">
         <v>2</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>32</v>
+      <c r="B34" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
@@ -959,8 +1004,8 @@
       <c r="A36" s="2">
         <v>2</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>32</v>
+      <c r="B36" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
@@ -993,32 +1038,23 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>4</v>
-      </c>
+      <c r="A40" s="6"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>100</v>
-      </c>
+      <c r="A41" s="6"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>32</v>
+      <c r="B43" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>11</v>
@@ -1031,8 +1067,8 @@
       <c r="A44" s="2">
         <v>2</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>32</v>
+      <c r="B44" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>11</v>
@@ -1083,27 +1119,150 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>8660736937</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1113,17 +1272,24 @@
     <hyperlink ref="B5:B8" r:id="rId2" display="akassss3@gmail.com" xr:uid="{F66C94ED-9822-4AB4-94E3-7C1ABBA25BC1}"/>
     <hyperlink ref="B7" r:id="rId3" display="akasss3@gmail.com" xr:uid="{0CCF518F-2023-44AD-8368-F807C0A964CF}"/>
     <hyperlink ref="B10" r:id="rId4" display="akassss3@gmail.com" xr:uid="{48197707-70E4-446A-AA17-0148ADE98461}"/>
-    <hyperlink ref="B22" r:id="rId5" xr:uid="{CD26137D-5BAF-4DFF-BA9A-74158A500319}"/>
-    <hyperlink ref="B20" r:id="rId6" display="akassss3@gmail.com" xr:uid="{E8F58B9E-5C76-4CAF-807C-D3635239F50D}"/>
-    <hyperlink ref="B27" r:id="rId7" display="akashrj@promilo.com" xr:uid="{8595C533-E9FD-4813-9C32-DF8487FCD918}"/>
-    <hyperlink ref="B25" r:id="rId8" xr:uid="{5C3B2FB8-0349-4D33-9FBC-8E01AC970ED9}"/>
-    <hyperlink ref="B26" r:id="rId9" xr:uid="{60CDAF95-3A39-413B-86BF-D86B527B6F0B}"/>
-    <hyperlink ref="B32" r:id="rId10" xr:uid="{158D8963-EED8-4C3F-AD85-ED3899E7120F}"/>
-    <hyperlink ref="B34" r:id="rId11" xr:uid="{C6017178-4351-4DC2-A2C8-25A8940A2DA5}"/>
-    <hyperlink ref="B36" r:id="rId12" xr:uid="{CC549D04-028E-45ED-B259-5188A6E93BB5}"/>
-    <hyperlink ref="B43" r:id="rId13" xr:uid="{C5157788-1439-4357-A745-60B8B72DC788}"/>
-    <hyperlink ref="B44" r:id="rId14" xr:uid="{AF2DE12E-B623-4102-8F26-8A83F3075641}"/>
-    <hyperlink ref="A52" r:id="rId15" xr:uid="{49BD0EA1-3293-4939-864A-BF63A6D43016}"/>
+    <hyperlink ref="B32" r:id="rId5" xr:uid="{158D8963-EED8-4C3F-AD85-ED3899E7120F}"/>
+    <hyperlink ref="B34" r:id="rId6" xr:uid="{C6017178-4351-4DC2-A2C8-25A8940A2DA5}"/>
+    <hyperlink ref="B36" r:id="rId7" xr:uid="{CC549D04-028E-45ED-B259-5188A6E93BB5}"/>
+    <hyperlink ref="B43" r:id="rId8" xr:uid="{C5157788-1439-4357-A745-60B8B72DC788}"/>
+    <hyperlink ref="B44" r:id="rId9" xr:uid="{AF2DE12E-B623-4102-8F26-8A83F3075641}"/>
+    <hyperlink ref="A52" r:id="rId10" xr:uid="{49BD0EA1-3293-4939-864A-BF63A6D43016}"/>
+    <hyperlink ref="A20" r:id="rId11" xr:uid="{7AA5F9C6-B8EA-4E59-9A65-E9F800970836}"/>
+    <hyperlink ref="A23" r:id="rId12" xr:uid="{72EF5860-F4E0-46AF-9EB8-A1D82F56D81C}"/>
+    <hyperlink ref="A26" r:id="rId13" xr:uid="{16307EA0-3877-4FE5-B3F6-6685708A9B11}"/>
+    <hyperlink ref="A56" r:id="rId14" xr:uid="{D1C10DC4-FC94-4C8A-A790-FCDD3D40B403}"/>
+    <hyperlink ref="A58" r:id="rId15" xr:uid="{692D7913-4508-46E0-819F-25B8635FDF0E}"/>
+    <hyperlink ref="A59" r:id="rId16" xr:uid="{E3024D32-5990-4E61-8603-D0B6702A43C2}"/>
+    <hyperlink ref="A61" r:id="rId17" xr:uid="{5F196BC5-1E4C-4E3F-95C7-445E366E83E9}"/>
+    <hyperlink ref="A62" r:id="rId18" xr:uid="{CAC873E3-F3CC-4627-98D6-E77E641D4DF2}"/>
+    <hyperlink ref="A63" r:id="rId19" xr:uid="{E167F39F-088B-472A-857B-F75D80360882}"/>
+    <hyperlink ref="A65" r:id="rId20" xr:uid="{C933CFAB-8216-4729-B695-CB697AFFF001}"/>
+    <hyperlink ref="A66" r:id="rId21" xr:uid="{3A8DBD09-FA2E-44FB-8C59-8737CB52C741}"/>
+    <hyperlink ref="A67" r:id="rId22" xr:uid="{F93B931B-5EE7-4B8E-9C14-CA67D0922256}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
